--- a/Schoolrapportage/1. Configuratie.xlsx
+++ b/Schoolrapportage/1. Configuratie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln-my.sharepoint.com/personal/s_vermeulen_vrln_nl/Documents/Bureaublad/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanderve\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3C23C33-3E57-401D-B56E-786C998E3F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B5B0DE2-C1CC-4A14-9177-B65FDF237108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="Rapportconfiguratie" sheetId="4" r:id="rId1"/>
@@ -426,9 +426,6 @@
     <t>Roken, vapen en drugs</t>
   </si>
   <si>
-    <t>LBRAK3S19; LBGEK3S4; LBSDK3S1</t>
-  </si>
-  <si>
     <t>Rookt wekelijks; Vapet wekelijks; Wiet/hasj ooit</t>
   </si>
   <si>
@@ -839,6 +836,9 @@
   </si>
   <si>
     <t>Schoolcode; KLAS; MBOKK3S31; GENDER</t>
+  </si>
+  <si>
+    <t>LBRAK3S19; LBGEK3S3; LBSDK3S1</t>
   </si>
 </sst>
 </file>
@@ -1346,7 +1346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1380,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>6</v>
@@ -1389,7 +1389,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -1403,7 +1403,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A75041-D6C8-4C2F-941F-420EA079C5D1}">
   <dimension ref="A1:L188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1510,7 +1510,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
@@ -1778,7 +1778,7 @@
         <v>30</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>51</v>
@@ -1808,7 +1808,7 @@
         <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>51</v>
@@ -2088,7 +2088,7 @@
         <v>51</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>56</v>
@@ -2123,7 +2123,7 @@
         <v>51</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>61</v>
@@ -2146,7 +2146,7 @@
         <v>28</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>30</v>
@@ -2175,7 +2175,7 @@
         <v>28</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>30</v>
@@ -2239,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>51</v>
@@ -2268,7 +2268,7 @@
         <v>30</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>51</v>
@@ -2361,7 +2361,7 @@
         <v>49</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>104</v>
@@ -2397,13 +2397,13 @@
         <v>54</v>
       </c>
       <c r="D32" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>0</v>
@@ -2464,7 +2464,7 @@
         <v>115</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>79</v>
@@ -2484,13 +2484,13 @@
         <v>28</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>51</v>
@@ -2505,7 +2505,7 @@
         <v>11</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2549,7 +2549,7 @@
         <v>30</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>51</v>
@@ -2579,7 +2579,7 @@
         <v>30</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>51</v>
@@ -2671,13 +2671,13 @@
         <v>86</v>
       </c>
       <c r="D41" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>129</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>56</v>
@@ -2692,7 +2692,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -2706,13 +2706,13 @@
         <v>86</v>
       </c>
       <c r="D42" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="25" t="s">
         <v>128</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>129</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>61</v>
@@ -2727,7 +2727,7 @@
         <v>11</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
@@ -2735,13 +2735,13 @@
         <v>49</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E43" s="24" t="s">
         <v>51</v>
@@ -2758,7 +2758,7 @@
         <v>12</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2766,13 +2766,13 @@
         <v>49</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>51</v>
@@ -2788,7 +2788,7 @@
         <v>12</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2796,19 +2796,19 @@
         <v>49</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D45" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="E45" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F45" s="25" t="s">
-        <v>140</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>56</v>
@@ -2823,7 +2823,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2831,19 +2831,19 @@
         <v>49</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D46" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F46" s="25" t="s">
         <v>139</v>
-      </c>
-      <c r="E46" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F46" s="25" t="s">
-        <v>140</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>61</v>
@@ -2858,7 +2858,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -2866,13 +2866,13 @@
         <v>28</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E47" s="24" t="s">
         <v>51</v>
@@ -2888,7 +2888,7 @@
         <v>13</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.3">
@@ -2896,19 +2896,19 @@
         <v>28</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D48" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F48" s="25" t="s">
         <v>146</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="F48" s="25" t="s">
-        <v>147</v>
       </c>
       <c r="I48" s="4" t="s">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>13</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
@@ -2928,13 +2928,13 @@
         <v>28</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>51</v>
@@ -2950,7 +2950,7 @@
         <v>13</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -2958,13 +2958,13 @@
         <v>28</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>51</v>
@@ -2980,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
@@ -2988,13 +2988,13 @@
         <v>28</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>51</v>
@@ -3010,7 +3010,7 @@
         <v>13</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.3">
@@ -3018,13 +3018,13 @@
         <v>28</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>51</v>
@@ -3040,7 +3040,7 @@
         <v>13</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3048,19 +3048,19 @@
         <v>28</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>51</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H53" s="4" t="s">
         <v>61</v>
@@ -3075,7 +3075,7 @@
         <v>13</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.3">
@@ -3083,16 +3083,16 @@
         <v>28</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D54" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>79</v>
@@ -3104,7 +3104,7 @@
         <v>13</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3112,13 +3112,13 @@
         <v>28</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E55" s="24" t="s">
         <v>51</v>
@@ -3134,7 +3134,7 @@
         <v>14</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="61.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -3142,13 +3142,13 @@
         <v>28</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E56" s="24" t="s">
         <v>51</v>
@@ -3164,7 +3164,7 @@
         <v>14</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
@@ -3172,13 +3172,13 @@
         <v>28</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E57" s="17" t="s">
         <v>51</v>
@@ -3200,7 +3200,7 @@
         <v>14</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="69" x14ac:dyDescent="0.3">
@@ -3208,19 +3208,19 @@
         <v>28</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D58" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F58" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>14</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
@@ -3240,13 +3240,13 @@
         <v>28</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E59" s="17" t="s">
         <v>51</v>
@@ -3262,7 +3262,7 @@
         <v>14</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3270,19 +3270,19 @@
         <v>28</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F60" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>61</v>
@@ -3297,7 +3297,7 @@
         <v>14</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
@@ -3305,13 +3305,13 @@
         <v>28</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E61" s="9" t="s">
         <v>51</v>
@@ -3327,7 +3327,7 @@
         <v>15</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="27.6" x14ac:dyDescent="0.3">
@@ -3335,19 +3335,19 @@
         <v>28</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C62" s="4" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F62" s="16" t="s">
-        <v>182</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>15</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="96.6" x14ac:dyDescent="0.3">
@@ -3367,19 +3367,19 @@
         <v>28</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="D63" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="D63" s="15" t="s">
+      <c r="E63" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F63" s="16" t="s">
         <v>186</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="16" t="s">
-        <v>187</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>0</v>
@@ -3391,7 +3391,7 @@
         <v>15</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3399,19 +3399,19 @@
         <v>28</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D64" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>191</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>61</v>
@@ -3426,7 +3426,7 @@
         <v>15</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -3434,13 +3434,13 @@
         <v>28</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65" s="17" t="s">
         <v>51</v>
@@ -3456,7 +3456,7 @@
         <v>16</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -3464,13 +3464,13 @@
         <v>28</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E66" s="17" t="s">
         <v>51</v>
@@ -3486,7 +3486,7 @@
         <v>16</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -3494,13 +3494,13 @@
         <v>28</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E67" s="17" t="s">
         <v>51</v>
@@ -3516,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -3524,13 +3524,13 @@
         <v>28</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E68" s="17" t="s">
         <v>51</v>
@@ -3546,7 +3546,7 @@
         <v>16</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -3554,13 +3554,13 @@
         <v>28</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>77</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E69" s="17" t="s">
         <v>51</v>
@@ -3576,7 +3576,7 @@
         <v>16</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3584,19 +3584,19 @@
         <v>28</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D70" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70" s="16" t="s">
         <v>205</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F70" s="16" t="s">
-        <v>206</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>61</v>
@@ -3611,7 +3611,7 @@
         <v>16</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -3619,13 +3619,13 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E71" s="16" t="s">
         <v>51</v>
@@ -3641,7 +3641,7 @@
         <v>16</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -3649,13 +3649,13 @@
         <v>28</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E72" s="16" t="s">
         <v>51</v>
@@ -3671,7 +3671,7 @@
         <v>16</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -3679,13 +3679,13 @@
         <v>28</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E73" s="16" t="s">
         <v>51</v>
@@ -3701,7 +3701,7 @@
         <v>17</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -3709,13 +3709,13 @@
         <v>28</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E74" s="17" t="s">
         <v>51</v>
@@ -3731,7 +3731,7 @@
         <v>17</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -3739,13 +3739,13 @@
         <v>28</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E75" s="17" t="s">
         <v>51</v>
@@ -3761,7 +3761,7 @@
         <v>17</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -3769,13 +3769,13 @@
         <v>28</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E76" s="17" t="s">
         <v>51</v>
@@ -3791,7 +3791,7 @@
         <v>17</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -3799,13 +3799,13 @@
         <v>28</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E77" s="17" t="s">
         <v>51</v>
@@ -3821,7 +3821,7 @@
         <v>17</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -3829,13 +3829,13 @@
         <v>28</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E78" s="17" t="s">
         <v>51</v>
@@ -3851,7 +3851,7 @@
         <v>17</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -3859,13 +3859,13 @@
         <v>28</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E79" s="17" t="s">
         <v>51</v>
@@ -3881,7 +3881,7 @@
         <v>17</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="41.4" x14ac:dyDescent="0.3">
@@ -3889,19 +3889,19 @@
         <v>28</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>86</v>
       </c>
       <c r="D80" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="E80" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="F80" s="16" t="s">
         <v>228</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F80" s="16" t="s">
-        <v>229</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>61</v>
@@ -3916,7 +3916,7 @@
         <v>17</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.3">
@@ -3924,13 +3924,13 @@
         <v>49</v>
       </c>
       <c r="B81" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D81" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E81" s="21" t="s">
         <v>106</v>
@@ -3946,7 +3946,7 @@
         <v>18</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.3">
@@ -3954,13 +3954,13 @@
         <v>49</v>
       </c>
       <c r="B82" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>104</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E82" s="21" t="s">
         <v>106</v>
@@ -3976,7 +3976,7 @@
         <v>18</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
@@ -4597,6 +4597,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="20" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="26426b46a5c0c1d258bf284d595ef36f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7a995b3ef3034e03d49cf2989483892d" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4873,45 +4895,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7D56E5-F4DF-48D9-A1CD-EEB941D1E03B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="10d3344f-2d16-43d9-a145-97142f5cb288"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4936,9 +4923,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B7D56E5-F4DF-48D9-A1CD-EEB941D1E03B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="10d3344f-2d16-43d9-a145-97142f5cb288"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>